--- a/BalanceSheet/NSC_bal.xlsx
+++ b/BalanceSheet/NSC_bal.xlsx
@@ -3821,7 +3821,7 @@
         <v>11599000000.0</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>12346000000.0</v>
+        <v>11616000000.0</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>11384000000.0</v>
@@ -3948,7 +3948,7 @@
         <v>12207000000.0</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>13014000000.0</v>
+        <v>12196000000.0</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>11836000000.0</v>
